--- a/都道府県・令制国.xlsx
+++ b/都道府県・令制国.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="8520"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8520"/>
   </bookViews>
   <sheets>
     <sheet name="都道府県・令制国" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="282">
   <si>
     <t>地方</t>
   </si>
@@ -845,19 +845,33 @@
   </si>
   <si>
     <t>おきなわけん</t>
+  </si>
+  <si>
+    <t>神奈川県</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>かながわけん</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相模</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>さがみ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>りょうせいこく</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -866,352 +880,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1236,254 +919,64 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color auto="1"/>
       </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
+      <top/>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+  </cellStyleXfs>
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-  </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -1493,57 +986,10 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
@@ -1834,14 +1280,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="B1:I76"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:I77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="K12" sqref="K12"/>
+      <selection pane="bottomLeft" activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1852,7 +1296,7 @@
     <col min="4" max="4" width="8.625" customWidth="1"/>
     <col min="5" max="5" width="12.625" customWidth="1"/>
     <col min="6" max="6" width="8.625" customWidth="1"/>
-    <col min="7" max="7" width="12.625" customWidth="1"/>
+    <col min="7" max="7" width="14.625" customWidth="1"/>
     <col min="8" max="8" width="8.625" customWidth="1"/>
     <col min="9" max="9" width="12.625" customWidth="1"/>
   </cols>
@@ -1873,8 +1317,8 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
+      <c r="G1" s="2" t="s">
+        <v>281</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>5</v>
@@ -1910,10 +1354,10 @@
       </c>
     </row>
     <row r="3" spans="2:9">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -1928,16 +1372,16 @@
       <c r="G3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="2:9">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
       <c r="D4" s="1" t="s">
         <v>21</v>
       </c>
@@ -1950,12 +1394,12 @@
       <c r="G4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
     </row>
     <row r="5" spans="2:9">
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
       <c r="D5" s="1" t="s">
         <v>25</v>
       </c>
@@ -1968,16 +1412,16 @@
       <c r="G5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
     </row>
     <row r="6" spans="2:9">
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="2" t="s">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="6" t="s">
         <v>30</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -1986,26 +1430,26 @@
       <c r="G6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
     </row>
     <row r="7" spans="2:9">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="1"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="6"/>
       <c r="F7" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
     </row>
     <row r="8" spans="2:9">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
       <c r="D8" s="1" t="s">
         <v>35</v>
       </c>
@@ -2018,12 +1462,12 @@
       <c r="G8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
     </row>
     <row r="9" spans="2:9">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
       <c r="D9" s="1" t="s">
         <v>39</v>
       </c>
@@ -2036,14 +1480,14 @@
       <c r="G9" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
     </row>
     <row r="10" spans="2:9">
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="3" t="s">
         <v>44</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -2058,12 +1502,12 @@
       <c r="G10" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
     </row>
     <row r="11" spans="2:9">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
       <c r="D11" s="1" t="s">
         <v>49</v>
       </c>
@@ -2076,16 +1520,16 @@
       <c r="G11" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
     </row>
     <row r="12" spans="2:9">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1" t="s">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="6" t="s">
         <v>54</v>
       </c>
       <c r="F12" s="1" t="s">
@@ -2094,34 +1538,34 @@
       <c r="G12" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="I12" s="6" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="13" spans="2:9">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
       <c r="F13" s="1" t="s">
         <v>59</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
     </row>
     <row r="14" spans="2:9">
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1" t="s">
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="6" t="s">
         <v>62</v>
       </c>
       <c r="F14" s="1" t="s">
@@ -2130,1184 +1574,1202 @@
       <c r="G14" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
     </row>
     <row r="15" spans="2:9">
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
       <c r="F15" s="1" t="s">
         <v>65</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
     </row>
     <row r="16" spans="2:9">
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
       <c r="D16" s="1" t="s">
         <v>67</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
     </row>
     <row r="17" spans="2:9">
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
       <c r="D17" s="1" t="s">
         <v>71</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
     </row>
     <row r="18" spans="2:9">
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+    </row>
+    <row r="19" spans="2:9">
+      <c r="B19" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C19" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D19" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+    </row>
+    <row r="20" spans="2:9">
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E20" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G20" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="2:9">
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1" t="s">
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+    </row>
+    <row r="21" spans="2:9">
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G21" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-    </row>
-    <row r="20" spans="2:9">
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1" t="s">
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+    </row>
+    <row r="22" spans="2:9">
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G22" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-    </row>
-    <row r="21" spans="2:9">
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1" t="s">
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+    </row>
+    <row r="23" spans="2:9">
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E23" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F23" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="G23" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-    </row>
-    <row r="22" spans="2:9">
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1" t="s">
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+    </row>
+    <row r="24" spans="2:9">
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="G24" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="2:9">
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-    </row>
-    <row r="24" spans="2:9">
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1" t="s">
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+    </row>
+    <row r="25" spans="2:9">
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E25" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F25" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="G25" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="H25" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="I25" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="2:9">
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1" t="s">
+    <row r="26" spans="2:9">
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="G26" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="2:9">
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1" t="s">
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+    </row>
+    <row r="27" spans="2:9">
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F27" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="G27" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="2:9">
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1" t="s">
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+    </row>
+    <row r="28" spans="2:9">
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E28" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F28" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="G28" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="H28" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="I27" s="1" t="s">
+      <c r="I28" s="6" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="28" spans="2:9">
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="1" t="s">
+    <row r="29" spans="2:9">
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="G29" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="2:9">
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1" t="s">
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+    </row>
+    <row r="30" spans="2:9">
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F30" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="G30" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-    </row>
-    <row r="30" spans="2:9">
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1" t="s">
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+    </row>
+    <row r="31" spans="2:9">
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E31" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="F31" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="G31" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-    </row>
-    <row r="31" spans="2:9">
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1" t="s">
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+    </row>
+    <row r="32" spans="2:9">
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="G32" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-    </row>
-    <row r="32" spans="2:9">
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1" t="s">
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+    </row>
+    <row r="33" spans="2:9">
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E33" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="F33" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="G33" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-    </row>
-    <row r="33" spans="2:9">
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1" t="s">
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+    </row>
+    <row r="34" spans="2:9">
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="G34" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-    </row>
-    <row r="34" spans="2:9">
-      <c r="B34" s="1" t="s">
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+    </row>
+    <row r="35" spans="2:9">
+      <c r="B35" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C35" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E35" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="F35" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="G35" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="H34" s="1" t="s">
+      <c r="H35" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I34" s="1" t="s">
+      <c r="I35" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="2:9">
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1" t="s">
+    <row r="36" spans="2:9">
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E36" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="F36" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="G36" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="H35" s="1" t="s">
+      <c r="H36" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="I35" s="1" t="s">
+      <c r="I36" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="36" spans="2:9">
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1" t="s">
+    <row r="37" spans="2:9">
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="G37" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="H36" s="1" t="s">
+      <c r="H37" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="I36" s="1" t="s">
+      <c r="I37" s="6" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="37" spans="2:9">
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1" t="s">
+    <row r="38" spans="2:9">
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="G37" s="1" t="s">
+      <c r="G38" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-    </row>
-    <row r="38" spans="2:9">
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1" t="s">
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+    </row>
+    <row r="39" spans="2:9">
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="E39" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="F39" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="G39" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-    </row>
-    <row r="39" spans="2:9">
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1" t="s">
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+    </row>
+    <row r="40" spans="2:9">
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="G39" s="1" t="s">
+      <c r="G40" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="H39" s="1" t="s">
+      <c r="H40" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="I39" s="1" t="s">
+      <c r="I40" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="40" spans="2:9">
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1" t="s">
+    <row r="41" spans="2:9">
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="G40" s="1" t="s">
+      <c r="G41" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="H40" s="1" t="s">
+      <c r="H41" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="I40" s="1" t="s">
+      <c r="I41" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="41" spans="2:9">
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1" t="s">
+    <row r="42" spans="2:9">
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="E42" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="F41" s="1" t="s">
+      <c r="F42" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="G41" s="1" t="s">
+      <c r="G42" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="H41" s="1" t="s">
+      <c r="H42" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="I41" s="1" t="s">
+      <c r="I42" s="6" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="42" spans="2:9">
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1" t="s">
+    <row r="43" spans="2:9">
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="G42" s="1" t="s">
+      <c r="G43" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-    </row>
-    <row r="43" spans="2:9">
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1" t="s">
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+    </row>
+    <row r="44" spans="2:9">
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="G43" s="1" t="s">
+      <c r="G44" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-    </row>
-    <row r="44" spans="2:9">
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1" t="s">
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+    </row>
+    <row r="45" spans="2:9">
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="E45" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="F44" s="1" t="s">
+      <c r="F45" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="G44" s="1" t="s">
+      <c r="G45" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-    </row>
-    <row r="45" spans="2:9">
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1" t="s">
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+    </row>
+    <row r="46" spans="2:9">
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="E46" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="F45" s="1" t="s">
+      <c r="F46" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="G45" s="1" t="s">
+      <c r="G46" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="H45" s="1" t="s">
+      <c r="H46" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="I45" s="1" t="s">
+      <c r="I46" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="46" spans="2:9">
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1" t="s">
+    <row r="47" spans="2:9">
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="E47" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="F46" s="1" t="s">
+      <c r="F47" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="G46" s="1" t="s">
+      <c r="G47" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="H46" s="1" t="s">
+      <c r="H47" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="I46" s="1" t="s">
+      <c r="I47" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="47" spans="2:9">
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1" t="s">
+    <row r="48" spans="2:9">
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="G47" s="1" t="s">
+      <c r="G48" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-    </row>
-    <row r="48" spans="2:9">
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1" t="s">
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+    </row>
+    <row r="49" spans="2:9">
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="G48" s="1" t="s">
+      <c r="G49" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-    </row>
-    <row r="49" spans="2:9">
-      <c r="B49" s="1" t="s">
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
+    </row>
+    <row r="50" spans="2:9">
+      <c r="B50" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C50" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D50" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="E50" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="F49" s="1" t="s">
+      <c r="F50" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="G49" s="1" t="s">
+      <c r="G50" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="H49" s="1" t="s">
+      <c r="H50" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="I49" s="1" t="s">
+      <c r="I50" s="6" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="50" spans="2:9">
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1" t="s">
+    <row r="51" spans="2:9">
+      <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="G50" s="1" t="s">
+      <c r="G51" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
-    </row>
-    <row r="51" spans="2:9">
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1" t="s">
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
+    </row>
+    <row r="52" spans="2:9">
+      <c r="B52" s="6"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="G51" s="1" t="s">
+      <c r="G52" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
-    </row>
-    <row r="52" spans="2:9">
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1" t="s">
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
+    </row>
+    <row r="53" spans="2:9">
+      <c r="B53" s="6"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="E52" s="1" t="s">
+      <c r="E53" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="F52" s="1" t="s">
+      <c r="F53" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="G52" s="1" t="s">
+      <c r="G53" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="H52" s="1"/>
-      <c r="I52" s="1"/>
-    </row>
-    <row r="53" spans="2:9">
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1" t="s">
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
+    </row>
+    <row r="54" spans="2:9">
+      <c r="B54" s="6"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="G53" s="1" t="s">
+      <c r="G54" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
-    </row>
-    <row r="54" spans="2:9">
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1" t="s">
+      <c r="H54" s="6"/>
+      <c r="I54" s="6"/>
+    </row>
+    <row r="55" spans="2:9">
+      <c r="B55" s="6"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="E54" s="1" t="s">
+      <c r="E55" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="F54" s="1" t="s">
+      <c r="F55" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="G54" s="1" t="s">
+      <c r="G55" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
-    </row>
-    <row r="55" spans="2:9">
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1" t="s">
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
+    </row>
+    <row r="56" spans="2:9">
+      <c r="B56" s="6"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="G55" s="1" t="s">
+      <c r="G56" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="H55" s="1"/>
-      <c r="I55" s="1"/>
-    </row>
-    <row r="56" spans="2:9">
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1" t="s">
+      <c r="H56" s="6"/>
+      <c r="I56" s="6"/>
+    </row>
+    <row r="57" spans="2:9">
+      <c r="B57" s="6"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="E56" s="1" t="s">
+      <c r="E57" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="F56" s="1" t="s">
+      <c r="F57" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="G56" s="1" t="s">
+      <c r="G57" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="H56" s="1" t="s">
+      <c r="H57" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="I56" s="1" t="s">
+      <c r="I57" s="6" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="57" spans="2:9">
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1" t="s">
+    <row r="58" spans="2:9">
+      <c r="B58" s="6"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="G57" s="1" t="s">
+      <c r="G58" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
-    </row>
-    <row r="58" spans="2:9">
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1" t="s">
+      <c r="H58" s="6"/>
+      <c r="I58" s="6"/>
+    </row>
+    <row r="59" spans="2:9">
+      <c r="B59" s="6"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="E58" s="1" t="s">
+      <c r="E59" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="F58" s="1" t="s">
+      <c r="F59" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="G58" s="1" t="s">
+      <c r="G59" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
-    </row>
-    <row r="59" spans="2:9">
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1" t="s">
+      <c r="H59" s="6"/>
+      <c r="I59" s="6"/>
+    </row>
+    <row r="60" spans="2:9">
+      <c r="B60" s="6"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="G59" s="1" t="s">
+      <c r="G60" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
-    </row>
-    <row r="60" spans="2:9">
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1" t="s">
+      <c r="H60" s="6"/>
+      <c r="I60" s="6"/>
+    </row>
+    <row r="61" spans="2:9">
+      <c r="B61" s="6"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="G60" s="1" t="s">
+      <c r="G61" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="H60" s="1"/>
-      <c r="I60" s="1"/>
-    </row>
-    <row r="61" spans="2:9">
-      <c r="B61" s="1" t="s">
+      <c r="H61" s="6"/>
+      <c r="I61" s="6"/>
+    </row>
+    <row r="62" spans="2:9">
+      <c r="B62" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C62" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="D62" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="E61" s="1" t="s">
+      <c r="E62" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="F61" s="1" t="s">
+      <c r="F62" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="G61" s="1" t="s">
+      <c r="G62" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="H61" s="1" t="s">
+      <c r="H62" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="I61" s="1" t="s">
+      <c r="I62" s="6" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="62" spans="2:9">
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1" t="s">
+    <row r="63" spans="2:9">
+      <c r="B63" s="6"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E62" s="1" t="s">
+      <c r="E63" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="F62" s="1" t="s">
+      <c r="F63" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="G62" s="1" t="s">
+      <c r="G63" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="H62" s="1"/>
-      <c r="I62" s="1"/>
-    </row>
-    <row r="63" spans="2:9">
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1" t="s">
+      <c r="H63" s="6"/>
+      <c r="I63" s="6"/>
+    </row>
+    <row r="64" spans="2:9">
+      <c r="B64" s="6"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="E63" s="1" t="s">
+      <c r="E64" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="F63" s="1" t="s">
+      <c r="F64" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="G63" s="1" t="s">
+      <c r="G64" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="H63" s="1"/>
-      <c r="I63" s="1"/>
-    </row>
-    <row r="64" spans="2:9">
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1" t="s">
+      <c r="H64" s="6"/>
+      <c r="I64" s="6"/>
+    </row>
+    <row r="65" spans="2:9">
+      <c r="B65" s="6"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="E64" s="1" t="s">
+      <c r="E65" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="F64" s="1" t="s">
+      <c r="F65" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="G64" s="1" t="s">
+      <c r="G65" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="H64" s="1"/>
-      <c r="I64" s="1"/>
-    </row>
-    <row r="65" spans="2:9">
-      <c r="B65" s="1" t="s">
+      <c r="H65" s="6"/>
+      <c r="I65" s="6"/>
+    </row>
+    <row r="66" spans="2:9">
+      <c r="B66" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C66" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="D66" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="E65" s="1" t="s">
+      <c r="E66" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="F65" s="1" t="s">
+      <c r="F66" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="G65" s="1" t="s">
+      <c r="G66" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="H65" s="1" t="s">
+      <c r="H66" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="I65" s="2" t="s">
+      <c r="I66" s="7" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="66" spans="2:9">
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="1" t="s">
+    <row r="67" spans="2:9">
+      <c r="B67" s="6"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="G66" s="1" t="s">
+      <c r="G67" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="H66" s="1"/>
-      <c r="I66" s="2"/>
-    </row>
-    <row r="67" spans="2:9">
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1" t="s">
+      <c r="H67" s="6"/>
+      <c r="I67" s="7"/>
+    </row>
+    <row r="68" spans="2:9">
+      <c r="B68" s="6"/>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="E67" s="1" t="s">
+      <c r="E68" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="F67" s="1" t="s">
+      <c r="F68" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="G67" s="1" t="s">
+      <c r="G68" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="H67" s="1"/>
-      <c r="I67" s="2"/>
-    </row>
-    <row r="68" spans="2:9">
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="1" t="s">
+      <c r="H68" s="6"/>
+      <c r="I68" s="7"/>
+    </row>
+    <row r="69" spans="2:9">
+      <c r="B69" s="6"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="G68" s="1" t="s">
+      <c r="G69" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="H68" s="1"/>
-      <c r="I68" s="2"/>
-    </row>
-    <row r="69" spans="2:9">
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1" t="s">
+      <c r="H69" s="6"/>
+      <c r="I69" s="7"/>
+    </row>
+    <row r="70" spans="2:9">
+      <c r="B70" s="6"/>
+      <c r="C70" s="6"/>
+      <c r="D70" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="E69" s="1" t="s">
+      <c r="E70" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="F69" s="1" t="s">
+      <c r="F70" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="G69" s="1" t="s">
+      <c r="G70" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="H69" s="1"/>
-      <c r="I69" s="2"/>
-    </row>
-    <row r="70" spans="2:9">
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1" t="s">
+      <c r="H70" s="6"/>
+      <c r="I70" s="7"/>
+    </row>
+    <row r="71" spans="2:9">
+      <c r="B71" s="6"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="E70" s="1" t="s">
+      <c r="E71" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="F70" s="1" t="s">
+      <c r="F71" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="G70" s="1" t="s">
+      <c r="G71" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="H70" s="1"/>
-      <c r="I70" s="2"/>
-    </row>
-    <row r="71" spans="2:9">
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="1" t="s">
+      <c r="H71" s="6"/>
+      <c r="I71" s="7"/>
+    </row>
+    <row r="72" spans="2:9">
+      <c r="B72" s="6"/>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="6"/>
+      <c r="F72" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="G71" s="1" t="s">
+      <c r="G72" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="H71" s="1"/>
-      <c r="I71" s="2"/>
-    </row>
-    <row r="72" spans="2:9">
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1" t="s">
+      <c r="H72" s="6"/>
+      <c r="I72" s="7"/>
+    </row>
+    <row r="73" spans="2:9">
+      <c r="B73" s="6"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="E72" s="1" t="s">
+      <c r="E73" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="F72" s="1" t="s">
+      <c r="F73" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="G72" s="1" t="s">
+      <c r="G73" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="H72" s="1"/>
-      <c r="I72" s="2"/>
-    </row>
-    <row r="73" spans="2:9">
-      <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1" t="s">
+      <c r="H73" s="6"/>
+      <c r="I73" s="7"/>
+    </row>
+    <row r="74" spans="2:9">
+      <c r="B74" s="6"/>
+      <c r="C74" s="6"/>
+      <c r="D74" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="E73" s="1" t="s">
+      <c r="E74" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="F73" s="1" t="s">
+      <c r="F74" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="G73" s="1" t="s">
+      <c r="G74" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="H73" s="1"/>
-      <c r="I73" s="2"/>
-    </row>
-    <row r="74" spans="2:9">
-      <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1" t="s">
+      <c r="H74" s="6"/>
+      <c r="I74" s="7"/>
+    </row>
+    <row r="75" spans="2:9">
+      <c r="B75" s="6"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="E74" s="1" t="s">
+      <c r="E75" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="F74" s="1" t="s">
+      <c r="F75" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="G74" s="1" t="s">
+      <c r="G75" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="H74" s="1"/>
-      <c r="I74" s="2"/>
-    </row>
-    <row r="75" spans="2:9">
-      <c r="B75" s="1"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
-      <c r="F75" s="1" t="s">
+      <c r="H75" s="6"/>
+      <c r="I75" s="7"/>
+    </row>
+    <row r="76" spans="2:9">
+      <c r="B76" s="6"/>
+      <c r="C76" s="6"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="6"/>
+      <c r="F76" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="G75" s="1" t="s">
+      <c r="G76" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="H75" s="1"/>
-      <c r="I75" s="2"/>
-    </row>
-    <row r="76" spans="2:9">
-      <c r="B76" s="1" t="s">
+      <c r="H76" s="6"/>
+      <c r="I76" s="7"/>
+    </row>
+    <row r="77" spans="2:9">
+      <c r="B77" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C77" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D76" s="1" t="s">
+      <c r="D77" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="E76" s="1" t="s">
+      <c r="E77" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="F76" s="1" t="s">
+      <c r="F77" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G76" s="1" t="s">
+      <c r="G77" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H76" s="1" t="s">
+      <c r="H77" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I76" s="1" t="s">
+      <c r="I77" s="1" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="82">
-    <mergeCell ref="B3:B9"/>
-    <mergeCell ref="B10:B17"/>
-    <mergeCell ref="B18:B33"/>
-    <mergeCell ref="B34:B48"/>
-    <mergeCell ref="B49:B60"/>
-    <mergeCell ref="B61:B64"/>
-    <mergeCell ref="B65:B75"/>
-    <mergeCell ref="C3:C9"/>
-    <mergeCell ref="C10:C17"/>
-    <mergeCell ref="C18:C33"/>
-    <mergeCell ref="C34:C48"/>
-    <mergeCell ref="C49:C60"/>
-    <mergeCell ref="C61:C64"/>
-    <mergeCell ref="C65:C75"/>
+    <mergeCell ref="B50:B61"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="D35:D37"/>
-    <mergeCell ref="D38:D40"/>
-    <mergeCell ref="D41:D43"/>
-    <mergeCell ref="D46:D48"/>
-    <mergeCell ref="D49:D51"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="D58:D60"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="B66:B76"/>
+    <mergeCell ref="C3:C9"/>
+    <mergeCell ref="C19:C34"/>
+    <mergeCell ref="C35:C49"/>
+    <mergeCell ref="C50:C61"/>
+    <mergeCell ref="C62:C65"/>
+    <mergeCell ref="C66:C76"/>
+    <mergeCell ref="B10:B18"/>
+    <mergeCell ref="C10:C18"/>
+    <mergeCell ref="B3:B9"/>
+    <mergeCell ref="B19:B34"/>
+    <mergeCell ref="B35:B49"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="D36:D38"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="D47:D49"/>
+    <mergeCell ref="D50:D52"/>
+    <mergeCell ref="D53:D54"/>
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="E12:E13"/>
     <mergeCell ref="E14:E15"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="E35:E37"/>
-    <mergeCell ref="E38:E40"/>
-    <mergeCell ref="E41:E43"/>
-    <mergeCell ref="E46:E48"/>
-    <mergeCell ref="E49:E51"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="E58:E60"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E28:E29"/>
     <mergeCell ref="F16:F17"/>
     <mergeCell ref="G16:G17"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="E36:E38"/>
+    <mergeCell ref="E39:E41"/>
+    <mergeCell ref="E42:E44"/>
+    <mergeCell ref="E47:E49"/>
+    <mergeCell ref="E50:E52"/>
     <mergeCell ref="H3:H11"/>
-    <mergeCell ref="H12:H23"/>
-    <mergeCell ref="H24:H26"/>
-    <mergeCell ref="H27:H33"/>
-    <mergeCell ref="H36:H38"/>
-    <mergeCell ref="H41:H44"/>
-    <mergeCell ref="H46:H48"/>
-    <mergeCell ref="H49:H55"/>
-    <mergeCell ref="H56:H60"/>
-    <mergeCell ref="H61:H64"/>
-    <mergeCell ref="H65:H75"/>
+    <mergeCell ref="H12:H24"/>
+    <mergeCell ref="H25:H27"/>
+    <mergeCell ref="H28:H34"/>
+    <mergeCell ref="H37:H39"/>
+    <mergeCell ref="I66:I76"/>
+    <mergeCell ref="H42:H45"/>
+    <mergeCell ref="H47:H49"/>
+    <mergeCell ref="H50:H56"/>
+    <mergeCell ref="H57:H61"/>
+    <mergeCell ref="H62:H65"/>
+    <mergeCell ref="I42:I45"/>
+    <mergeCell ref="I47:I49"/>
+    <mergeCell ref="I50:I56"/>
+    <mergeCell ref="I57:I61"/>
+    <mergeCell ref="I62:I65"/>
     <mergeCell ref="I3:I11"/>
-    <mergeCell ref="I12:I23"/>
-    <mergeCell ref="I24:I26"/>
-    <mergeCell ref="I27:I33"/>
-    <mergeCell ref="I36:I38"/>
-    <mergeCell ref="I41:I44"/>
-    <mergeCell ref="I46:I48"/>
-    <mergeCell ref="I49:I55"/>
-    <mergeCell ref="I56:I60"/>
-    <mergeCell ref="I61:I64"/>
-    <mergeCell ref="I65:I75"/>
+    <mergeCell ref="I12:I24"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="I28:I34"/>
+    <mergeCell ref="I37:I39"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="H66:H76"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="E59:E61"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="D59:D61"/>
+    <mergeCell ref="D66:D67"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>